--- a/ProtocolFiles/EP_Bubble_v002p1.xlsx
+++ b/ProtocolFiles/EP_Bubble_v002p1.xlsx
@@ -312,7 +312,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -320,7 +320,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -336,7 +336,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -348,11 +348,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -364,7 +364,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -407,7 +407,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
